--- a/trunk/meetings/Costos.20100927.xlsx
+++ b/trunk/meetings/Costos.20100927.xlsx
@@ -87,14 +87,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -103,15 +103,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -157,6 +148,15 @@
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
@@ -166,24 +166,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Costo</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -233,19 +216,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>64</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>132</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>268</c:v>
+                  <c:v>276</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>336</c:v>
+                  <c:v>344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -296,7 +279,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>64</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -347,7 +330,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>21.5</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -357,11 +340,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="57541760"/>
-        <c:axId val="57557376"/>
+        <c:axId val="92270592"/>
+        <c:axId val="92272512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="57541760"/>
+        <c:axId val="92270592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -387,14 +370,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57557376"/>
+        <c:crossAx val="92272512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57557376"/>
+        <c:axId val="92272512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -421,7 +404,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57541760"/>
+        <c:crossAx val="92270592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -434,7 +417,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -476,15 +459,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A2:D7" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A2:D7" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A2:D7"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Sprint / Horas" dataDxfId="5"/>
-    <tableColumn id="2" name="Hs Planificadas Totales" dataDxfId="4">
+    <tableColumn id="1" name="Sprint / Horas" dataDxfId="3"/>
+    <tableColumn id="2" name="Hs Planificadas Totales" dataDxfId="2">
       <calculatedColumnFormula>B2+68</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Hs Planificadas Completadas" dataDxfId="3"/>
-    <tableColumn id="4" name="Hs Reales Utilizadas" dataDxfId="2"/>
+    <tableColumn id="3" name="Hs Planificadas Completadas" dataDxfId="1"/>
+    <tableColumn id="4" name="Hs Reales Utilizadas" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -778,96 +761,96 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="15.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" ht="30">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
-        <v>64</v>
-      </c>
-      <c r="C3" s="4">
-        <v>64</v>
-      </c>
-      <c r="D3" s="4">
-        <v>21.5</v>
+      <c r="B3" s="3">
+        <v>72</v>
+      </c>
+      <c r="C3" s="3">
+        <v>72</v>
+      </c>
+      <c r="D3" s="3">
+        <v>22.5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <f>B3+68</f>
-        <v>132</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+        <v>140</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <f t="shared" ref="B5:B7" si="0">B4+68</f>
-        <v>200</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+        <v>208</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <f t="shared" si="0"/>
-        <v>268</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+        <v>276</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <f t="shared" si="0"/>
-        <v>336</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+        <v>344</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/trunk/meetings/Costos.20100927.xlsx
+++ b/trunk/meetings/Costos.20100927.xlsx
@@ -330,7 +330,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>22.5</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -340,11 +340,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="92270592"/>
-        <c:axId val="92272512"/>
+        <c:axId val="104333312"/>
+        <c:axId val="104335232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92270592"/>
+        <c:axId val="104333312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -370,14 +370,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92272512"/>
+        <c:crossAx val="104335232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92272512"/>
+        <c:axId val="104335232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -404,7 +404,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92270592"/>
+        <c:crossAx val="104333312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -417,7 +417,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -761,7 +761,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -805,7 +805,7 @@
         <v>72</v>
       </c>
       <c r="D3" s="3">
-        <v>22.5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4">
